--- a/tut05/output/0501CS07.xlsx
+++ b/tut05/output/0501CS07.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.897959183673469</v>
+        <v>8.9</v>
       </c>
       <c r="C6" t="n">
-        <v>8.363636363636363</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.372093023255815</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>7.978723404255319</v>
+        <v>7.98</v>
       </c>
       <c r="F6" t="n">
-        <v>7.809523809523809</v>
+        <v>7.81</v>
       </c>
       <c r="G6" t="n">
         <v>6.95</v>
       </c>
       <c r="H6" t="n">
-        <v>6.512195121951219</v>
+        <v>6.51</v>
       </c>
       <c r="I6" t="n">
         <v>7.25</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.897959183673469</v>
+        <v>8.9</v>
       </c>
       <c r="C8" t="n">
-        <v>8.64516129032258</v>
+        <v>8.65</v>
       </c>
       <c r="D8" t="n">
-        <v>8.875</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.644808743169399</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.488888888888889</v>
+        <v>8.49</v>
       </c>
       <c r="G8" t="n">
-        <v>8.256603773584906</v>
+        <v>8.26</v>
       </c>
       <c r="H8" t="n">
-        <v>8.022875816993464</v>
+        <v>8.02</v>
       </c>
       <c r="I8" t="n">
-        <v>7.933526011560693</v>
+        <v>7.93</v>
       </c>
     </row>
   </sheetData>
